--- a/Отчеты/СВЧ/СВЧ.xlsx
+++ b/Отчеты/СВЧ/СВЧ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D50695C-90D4-449E-BA18-01A32EF0E217}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F3E2B4-B821-4462-AF5C-38FE7A602249}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,19 +49,19 @@
     <t>Эффективность %</t>
   </si>
   <si>
-    <t>Сетка зеленая большая</t>
+    <t>Резина</t>
   </si>
   <si>
-    <t>Белая доска дерево</t>
+    <t>Пластик</t>
   </si>
   <si>
-    <t>Металлическая решеткая малкая</t>
+    <t xml:space="preserve">Алюминий </t>
   </si>
   <si>
-    <t>Черная резиновая доска</t>
+    <t>Крупная сеть</t>
   </si>
   <si>
-    <t>Белая доска металл</t>
+    <t>Мелкая сеть</t>
   </si>
 </sst>
 </file>
@@ -682,10 +682,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -762,21 +762,24 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -797,19 +800,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Черная резиновая доска</c:v>
+                  <c:v>Резина</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Белая доска дерево</c:v>
+                  <c:v>Пластик</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Сетка зеленая большая</c:v>
+                  <c:v>Крупная сеть</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Металлическая решеткая малкая</c:v>
+                  <c:v>Мелкая сеть</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Белая доска металл</c:v>
+                  <c:v>Алюминий </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -821,7 +824,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.7027027027027</c:v>
+                  <c:v>18.918918918918916</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>13.513513513513514</c:v>
@@ -1046,41 +1049,28 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -2413,7 +2403,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2678,7 +2668,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -2694,18 +2684,18 @@
     </row>
     <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B15" s="6">
         <v>12.95</v>
       </c>
       <c r="C15" s="6">
-        <f>36*0.35</f>
-        <v>12.6</v>
+        <f>30*0.35</f>
+        <v>10.5</v>
       </c>
       <c r="D15" s="6">
         <f>(B15-C15)/B15*100</f>
-        <v>2.7027027027027</v>
+        <v>18.918918918918916</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2726,7 +2716,7 @@
     </row>
     <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B17" s="6">
         <v>12.95</v>
@@ -2742,7 +2732,7 @@
     </row>
     <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B18" s="6">
         <v>12.95</v>
@@ -2758,7 +2748,7 @@
     </row>
     <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B19" s="6">
         <v>12.95</v>
